--- a/Excel/9. Conditional Formatting/Lecture_6_Formatting.xlsx
+++ b/Excel/9. Conditional Formatting/Lecture_6_Formatting.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E7C3B-B800-494F-A030-2FA593D73B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC151FD-A545-45AA-9862-2649A1C16302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data" sheetId="26" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="29" r:id="rId2"/>
     <sheet name="Worksheet" sheetId="28" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="EastAndWest">[1]INDEX!$D$91:$G$93,[1]INDEX!$D$96:$G$98</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Students</t>
   </si>
@@ -108,12 +109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +193,41 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Congenial SemiBold"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -207,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -350,13 +386,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,13 +492,27 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -402,16 +521,44 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -436,35 +583,10 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0EEDC1A5-246D-4A27-8B2C-3879A4266105}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF5050"/>
@@ -1324,7 +1446,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201DE8FE-B6CB-4B95-A449-540CAC1EB5A6}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,31 +1876,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2218,13 +2340,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J3:J14">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
-      <formula>0.681666667</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>72.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2255,7 +2372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="top10" dxfId="3" priority="5" percent="1" rank="40"/>
+    <cfRule type="top10" dxfId="6" priority="5" percent="1" rank="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
     <cfRule type="iconSet" priority="4">
@@ -2267,7 +2384,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="duplicateValues" priority="3"/>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="35"/>
@@ -2277,6 +2393,12 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="duplicateValues" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>0.681666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K20">
@@ -2349,23 +2471,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2789,7 +2911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:H17">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2806,7 +2928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I17">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="15"/>
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J17">
     <cfRule type="colorScale" priority="1">
@@ -2839,4 +2961,525 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8621E6E4-AB1C-42C3-94FF-7BB7C4577075}">
+  <dimension ref="D7:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>99</v>
+      </c>
+      <c r="F8" s="20">
+        <v>83</v>
+      </c>
+      <c r="G8" s="20">
+        <v>85</v>
+      </c>
+      <c r="H8" s="20">
+        <v>82</v>
+      </c>
+      <c r="I8" s="20">
+        <v>69</v>
+      </c>
+      <c r="J8" s="20">
+        <v>92</v>
+      </c>
+      <c r="K8" s="20">
+        <v>510</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>85</v>
+      </c>
+      <c r="F9" s="20">
+        <v>53</v>
+      </c>
+      <c r="G9" s="20">
+        <v>43</v>
+      </c>
+      <c r="H9" s="20">
+        <v>52</v>
+      </c>
+      <c r="I9" s="20">
+        <v>11</v>
+      </c>
+      <c r="J9" s="20">
+        <v>52</v>
+      </c>
+      <c r="K9" s="20">
+        <v>296</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.49333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="20">
+        <v>85</v>
+      </c>
+      <c r="F10" s="20">
+        <v>80</v>
+      </c>
+      <c r="G10" s="20">
+        <v>79</v>
+      </c>
+      <c r="H10" s="20">
+        <v>79</v>
+      </c>
+      <c r="I10" s="20">
+        <v>74</v>
+      </c>
+      <c r="J10" s="20">
+        <v>91</v>
+      </c>
+      <c r="K10" s="20">
+        <v>488</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.81333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20">
+        <v>100</v>
+      </c>
+      <c r="F11" s="20">
+        <v>99</v>
+      </c>
+      <c r="G11" s="20">
+        <v>82</v>
+      </c>
+      <c r="H11" s="20">
+        <v>98</v>
+      </c>
+      <c r="I11" s="20">
+        <v>81</v>
+      </c>
+      <c r="J11" s="20">
+        <v>62</v>
+      </c>
+      <c r="K11" s="20">
+        <v>522</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45</v>
+      </c>
+      <c r="F12" s="20">
+        <v>60</v>
+      </c>
+      <c r="G12" s="20">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20">
+        <v>59</v>
+      </c>
+      <c r="I12" s="20">
+        <v>45</v>
+      </c>
+      <c r="J12" s="20">
+        <v>60</v>
+      </c>
+      <c r="K12" s="20">
+        <v>299</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.49833333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20">
+        <v>63</v>
+      </c>
+      <c r="F13" s="20">
+        <v>76</v>
+      </c>
+      <c r="G13" s="20">
+        <v>81</v>
+      </c>
+      <c r="H13" s="20">
+        <v>61</v>
+      </c>
+      <c r="I13" s="20">
+        <v>94</v>
+      </c>
+      <c r="J13" s="20">
+        <v>45</v>
+      </c>
+      <c r="K13" s="20">
+        <v>420</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="20">
+        <v>72</v>
+      </c>
+      <c r="F14" s="20">
+        <v>67</v>
+      </c>
+      <c r="G14" s="20">
+        <v>86</v>
+      </c>
+      <c r="H14" s="20">
+        <v>66</v>
+      </c>
+      <c r="I14" s="20">
+        <v>81</v>
+      </c>
+      <c r="J14" s="20">
+        <v>58</v>
+      </c>
+      <c r="K14" s="20">
+        <v>430</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="20">
+        <v>82</v>
+      </c>
+      <c r="F15" s="20">
+        <v>63</v>
+      </c>
+      <c r="G15" s="20">
+        <v>72</v>
+      </c>
+      <c r="H15" s="20">
+        <v>80</v>
+      </c>
+      <c r="I15" s="20">
+        <v>53</v>
+      </c>
+      <c r="J15" s="20">
+        <v>92</v>
+      </c>
+      <c r="K15" s="20">
+        <v>442</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0.73666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20">
+        <v>68</v>
+      </c>
+      <c r="F16" s="20">
+        <v>93</v>
+      </c>
+      <c r="G16" s="20">
+        <v>71</v>
+      </c>
+      <c r="H16" s="20">
+        <v>92</v>
+      </c>
+      <c r="I16" s="20">
+        <v>96</v>
+      </c>
+      <c r="J16" s="20">
+        <v>65</v>
+      </c>
+      <c r="K16" s="20">
+        <v>485</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0.80833333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="20">
+        <v>59</v>
+      </c>
+      <c r="F17" s="20">
+        <v>89</v>
+      </c>
+      <c r="G17" s="20">
+        <v>95</v>
+      </c>
+      <c r="H17" s="20">
+        <v>57</v>
+      </c>
+      <c r="I17" s="20">
+        <v>31</v>
+      </c>
+      <c r="J17" s="20">
+        <v>75</v>
+      </c>
+      <c r="K17" s="20">
+        <v>406</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0.67666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>84</v>
+      </c>
+      <c r="F18" s="20">
+        <v>43</v>
+      </c>
+      <c r="G18" s="20">
+        <v>93</v>
+      </c>
+      <c r="H18" s="20">
+        <v>42</v>
+      </c>
+      <c r="I18" s="20">
+        <v>52</v>
+      </c>
+      <c r="J18" s="20">
+        <v>75</v>
+      </c>
+      <c r="K18" s="20">
+        <v>389</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.64833333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="D19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="20">
+        <v>94</v>
+      </c>
+      <c r="F19" s="20">
+        <v>72</v>
+      </c>
+      <c r="G19" s="20">
+        <v>54</v>
+      </c>
+      <c r="H19" s="20">
+        <v>92</v>
+      </c>
+      <c r="I19" s="20">
+        <v>32</v>
+      </c>
+      <c r="J19" s="20">
+        <v>57</v>
+      </c>
+      <c r="K19" s="20">
+        <v>401</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.66833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="D20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="19">
+        <v>78</v>
+      </c>
+      <c r="F20" s="19">
+        <v>73.166666666666671</v>
+      </c>
+      <c r="G20" s="19">
+        <v>72.583333333333329</v>
+      </c>
+      <c r="H20" s="19">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="I20" s="19">
+        <v>59.916666666666664</v>
+      </c>
+      <c r="J20" s="19">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E8:E19">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F19">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+      <formula>50</formula>
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G19">
+    <cfRule type="aboveAverage" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H19">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4470EF4D-9041-4A27-9ABA-A9E373CD8749}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I19">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F91ADE8-3574-41C8-BE94-69ABA14D7398}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4470EF4D-9041-4A27-9ABA-A9E373CD8749}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8:H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F91ADE8-3574-41C8-BE94-69ABA14D7398}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I8:I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{C83AF553-33EE-413E-8A6D-3276A39C1BC5}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J8:J19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>